--- a/excelFiles.xlsx
+++ b/excelFiles.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>NotCompleted</v>
+        <v>Approval</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -451,7 +451,7 @@
         <v>Approval</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Confirmed</v>
+        <v>AwaitingPayment</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -476,12 +476,12 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Canceled</v>
+        <v>Approval</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -498,29 +498,29 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Completed</v>
+        <v>Approval</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Confirmed</v>
+        <v>Approval</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -534,9 +534,273 @@
         <v>200</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>AwaitingPayment</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Confirmed</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Approval</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Confirmed</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Confirmed</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C36"/>
   </ignoredErrors>
 </worksheet>
 </file>